--- a/Group 2 ETL Documentation.xlsx
+++ b/Group 2 ETL Documentation.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD31397-65ED-495D-8663-8054DDCD9150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Documentation" sheetId="1" r:id="rId4"/>
+    <sheet name="Documentation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -265,34 +274,44 @@
     <t>Convert all currency amount to regular integer</t>
   </si>
   <si>
-    <t>Ensure all Column Names to be properly spaced and capitalized</t>
+    <t>Ensure all Column Names to be properly underscored and lowercased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +319,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,47 +335,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -546,27 +565,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA4C2F4"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="55.29"/>
-    <col customWidth="1" min="6" max="6" width="21.57"/>
-    <col customWidth="1" min="7" max="7" width="17.57"/>
-    <col customWidth="1" min="11" max="11" width="56.71"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -627,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -656,13 +680,13 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -688,16 +712,16 @@
         <v>14</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -723,16 +747,16 @@
         <v>25</v>
       </c>
       <c r="I5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -758,16 +782,16 @@
         <v>25</v>
       </c>
       <c r="I6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -793,13 +817,13 @@
         <v>32</v>
       </c>
       <c r="I7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -825,13 +849,13 @@
         <v>32</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,16 +881,16 @@
         <v>32</v>
       </c>
       <c r="I9" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -892,16 +916,16 @@
         <v>14</v>
       </c>
       <c r="I10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -927,13 +951,13 @@
         <v>14</v>
       </c>
       <c r="I11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -959,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="I12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -994,10 +1018,10 @@
         <v>51</v>
       </c>
       <c r="J13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1023,13 +1047,13 @@
         <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1107,13 +1131,13 @@
         <v>32</v>
       </c>
       <c r="I17" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1139,16 +1163,16 @@
         <v>25</v>
       </c>
       <c r="I18" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J18" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1174,13 +1198,13 @@
         <v>14</v>
       </c>
       <c r="I19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1206,16 +1230,16 @@
         <v>14</v>
       </c>
       <c r="I20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1241,13 +1265,13 @@
         <v>32</v>
       </c>
       <c r="I21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1273,13 +1297,13 @@
         <v>32</v>
       </c>
       <c r="I22" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1305,16 +1329,16 @@
         <v>14</v>
       </c>
       <c r="I23" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1340,13 +1364,13 @@
         <v>25</v>
       </c>
       <c r="I24" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1372,84 +1396,86 @@
         <v>32</v>
       </c>
       <c r="I25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>84</v>
@@ -1460,6 +1486,6 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A33:B33"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Group 2 ETL Documentation.xlsx
+++ b/Group 2 ETL Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD31397-65ED-495D-8663-8054DDCD9150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6EBA1E-38E2-42CD-90F6-54CC48D5E782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
